--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,15 +92,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.7173549903078</v>
+        <v>7.064132999999999</v>
       </c>
       <c r="H2">
-        <v>1.7173549903078</v>
+        <v>21.192399</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.5783243202658</v>
+        <v>35.31114333333333</v>
       </c>
       <c r="N2">
-        <v>25.5783243202658</v>
+        <v>105.93343</v>
       </c>
       <c r="O2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="P2">
-        <v>0.5418103263670895</v>
+        <v>0.6187867769880316</v>
       </c>
       <c r="Q2">
-        <v>43.92706291511984</v>
+        <v>249.44261288873</v>
       </c>
       <c r="R2">
-        <v>43.92706291511984</v>
+        <v>2244.98351599857</v>
       </c>
       <c r="S2">
-        <v>0.5418103263670895</v>
+        <v>0.4804530647277137</v>
       </c>
       <c r="T2">
-        <v>0.5418103263670895</v>
+        <v>0.4804530647277137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.7173549903078</v>
+        <v>7.064132999999999</v>
       </c>
       <c r="H3">
-        <v>1.7173549903078</v>
+        <v>21.192399</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.46550882591475</v>
+        <v>6.551362</v>
       </c>
       <c r="N3">
-        <v>6.46550882591475</v>
+        <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="P3">
-        <v>0.136955001556637</v>
+        <v>0.1148050103785518</v>
       </c>
       <c r="Q3">
-        <v>11.10357384706382</v>
+        <v>46.27969249914599</v>
       </c>
       <c r="R3">
-        <v>11.10357384706382</v>
+        <v>416.517232492314</v>
       </c>
       <c r="S3">
-        <v>0.136955001556637</v>
+        <v>0.08913962148796702</v>
       </c>
       <c r="T3">
-        <v>0.136955001556637</v>
+        <v>0.08913962148796702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.7173549903078</v>
+        <v>7.064132999999999</v>
       </c>
       <c r="H4">
-        <v>1.7173549903078</v>
+        <v>21.192399</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7764436516667944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.9499036591278</v>
+        <v>10.951915</v>
       </c>
       <c r="N4">
-        <v>10.9499036591278</v>
+        <v>32.855745</v>
       </c>
       <c r="O4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="P4">
-        <v>0.2319452518060248</v>
+        <v>0.191919590955288</v>
       </c>
       <c r="Q4">
-        <v>18.80487169239277</v>
+        <v>77.36578416469499</v>
       </c>
       <c r="R4">
-        <v>18.80487169239277</v>
+        <v>696.2920574822549</v>
       </c>
       <c r="S4">
-        <v>0.2319452518060248</v>
+        <v>0.1490147480277213</v>
       </c>
       <c r="T4">
-        <v>0.2319452518060248</v>
+        <v>0.1490147480277213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,805 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>7.064132999999999</v>
+      </c>
+      <c r="H5">
+        <v>21.192399</v>
+      </c>
+      <c r="I5">
+        <v>0.7764436516667944</v>
+      </c>
+      <c r="J5">
+        <v>0.7764436516667944</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N5">
+        <v>12.752107</v>
+      </c>
+      <c r="O5">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P5">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q5">
+        <v>30.02752662607699</v>
+      </c>
+      <c r="R5">
+        <v>270.2477396346929</v>
+      </c>
+      <c r="S5">
+        <v>0.05783621742339249</v>
+      </c>
+      <c r="T5">
+        <v>0.05783621742339249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05898900000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.176967</v>
+      </c>
+      <c r="I6">
+        <v>0.006483688029114479</v>
+      </c>
+      <c r="J6">
+        <v>0.006483688029114478</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>35.31114333333333</v>
+      </c>
+      <c r="N6">
+        <v>105.93343</v>
+      </c>
+      <c r="O6">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="P6">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="Q6">
+        <v>2.08296903409</v>
+      </c>
+      <c r="R6">
+        <v>18.74672130681</v>
+      </c>
+      <c r="S6">
+        <v>0.004012020418531631</v>
+      </c>
+      <c r="T6">
+        <v>0.004012020418531631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05898900000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.176967</v>
+      </c>
+      <c r="I7">
+        <v>0.006483688029114479</v>
+      </c>
+      <c r="J7">
+        <v>0.006483688029114478</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.551362</v>
+      </c>
+      <c r="N7">
+        <v>19.654086</v>
+      </c>
+      <c r="O7">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="P7">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="Q7">
+        <v>0.3864582930180001</v>
+      </c>
+      <c r="R7">
+        <v>3.478124637162</v>
+      </c>
+      <c r="S7">
+        <v>0.00074435987147378</v>
+      </c>
+      <c r="T7">
+        <v>0.0007443598714737799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05898900000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.176967</v>
+      </c>
+      <c r="I8">
+        <v>0.006483688029114479</v>
+      </c>
+      <c r="J8">
+        <v>0.006483688029114478</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.951915</v>
+      </c>
+      <c r="N8">
+        <v>32.855745</v>
+      </c>
+      <c r="O8">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="P8">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="Q8">
+        <v>0.646042513935</v>
+      </c>
+      <c r="R8">
+        <v>5.814382625415</v>
+      </c>
+      <c r="S8">
+        <v>0.001244346754429348</v>
+      </c>
+      <c r="T8">
+        <v>0.001244346754429348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05898900000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.176967</v>
+      </c>
+      <c r="I9">
+        <v>0.006483688029114479</v>
+      </c>
+      <c r="J9">
+        <v>0.006483688029114478</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N9">
+        <v>12.752107</v>
+      </c>
+      <c r="O9">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P9">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q9">
+        <v>0.250744679941</v>
+      </c>
+      <c r="R9">
+        <v>2.256702119469</v>
+      </c>
+      <c r="S9">
+        <v>0.0004829609846797195</v>
+      </c>
+      <c r="T9">
+        <v>0.0004829609846797194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.7173549903078</v>
-      </c>
-      <c r="H5">
-        <v>1.7173549903078</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.21526434417487</v>
-      </c>
-      <c r="N5">
-        <v>4.21526434417487</v>
-      </c>
-      <c r="O5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="P5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="Q5">
-        <v>7.239105256935249</v>
-      </c>
-      <c r="R5">
-        <v>7.239105256935249</v>
-      </c>
-      <c r="S5">
-        <v>0.0892894202702489</v>
-      </c>
-      <c r="T5">
-        <v>0.0892894202702489</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.006460333333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.019381</v>
+      </c>
+      <c r="I10">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="J10">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>35.31114333333333</v>
+      </c>
+      <c r="N10">
+        <v>105.93343</v>
+      </c>
+      <c r="O10">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="P10">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="Q10">
+        <v>0.2281217563144444</v>
+      </c>
+      <c r="R10">
+        <v>2.05309580683</v>
+      </c>
+      <c r="S10">
+        <v>0.0004393868220151865</v>
+      </c>
+      <c r="T10">
+        <v>0.0004393868220151865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.006460333333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.019381</v>
+      </c>
+      <c r="I11">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="J11">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.551362</v>
+      </c>
+      <c r="N11">
+        <v>19.654086</v>
+      </c>
+      <c r="O11">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="P11">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="Q11">
+        <v>0.04232398230733333</v>
+      </c>
+      <c r="R11">
+        <v>0.380915840766</v>
+      </c>
+      <c r="S11">
+        <v>8.15205019525297E-05</v>
+      </c>
+      <c r="T11">
+        <v>8.15205019525297E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.006460333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.019381</v>
+      </c>
+      <c r="I12">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="J12">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.951915</v>
+      </c>
+      <c r="N12">
+        <v>32.855745</v>
+      </c>
+      <c r="O12">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="P12">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="Q12">
+        <v>0.07075302153833332</v>
+      </c>
+      <c r="R12">
+        <v>0.636777193845</v>
+      </c>
+      <c r="S12">
+        <v>0.0001362778622432159</v>
+      </c>
+      <c r="T12">
+        <v>0.0001362778622432159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.006460333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.019381</v>
+      </c>
+      <c r="I13">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="J13">
+        <v>0.0007100779110922809</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.752107</v>
+      </c>
+      <c r="O13">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P13">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q13">
+        <v>0.0274609539741111</v>
+      </c>
+      <c r="R13">
+        <v>0.247148585767</v>
+      </c>
+      <c r="S13">
+        <v>5.289272488134873E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.289272488134873E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.968480333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.905441</v>
+      </c>
+      <c r="I14">
+        <v>0.2163625823929989</v>
+      </c>
+      <c r="J14">
+        <v>0.2163625823929988</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>35.31114333333333</v>
+      </c>
+      <c r="N14">
+        <v>105.93343</v>
+      </c>
+      <c r="O14">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="P14">
+        <v>0.6187867769880316</v>
+      </c>
+      <c r="Q14">
+        <v>69.50929119918111</v>
+      </c>
+      <c r="R14">
+        <v>625.58362079263</v>
+      </c>
+      <c r="S14">
+        <v>0.1338823050197712</v>
+      </c>
+      <c r="T14">
+        <v>0.1338823050197712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.968480333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.905441</v>
+      </c>
+      <c r="I15">
+        <v>0.2163625823929989</v>
+      </c>
+      <c r="J15">
+        <v>0.2163625823929988</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.551362</v>
+      </c>
+      <c r="N15">
+        <v>19.654086</v>
+      </c>
+      <c r="O15">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="P15">
+        <v>0.1148050103785518</v>
+      </c>
+      <c r="Q15">
+        <v>12.89622725354733</v>
+      </c>
+      <c r="R15">
+        <v>116.066045281926</v>
+      </c>
+      <c r="S15">
+        <v>0.02483950851715851</v>
+      </c>
+      <c r="T15">
+        <v>0.02483950851715851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.968480333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.905441</v>
+      </c>
+      <c r="I16">
+        <v>0.2163625823929989</v>
+      </c>
+      <c r="J16">
+        <v>0.2163625823929988</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.951915</v>
+      </c>
+      <c r="N16">
+        <v>32.855745</v>
+      </c>
+      <c r="O16">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="P16">
+        <v>0.191919590955288</v>
+      </c>
+      <c r="Q16">
+        <v>21.55862928983833</v>
+      </c>
+      <c r="R16">
+        <v>194.027663608545</v>
+      </c>
+      <c r="S16">
+        <v>0.04152421831089413</v>
+      </c>
+      <c r="T16">
+        <v>0.04152421831089413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.968480333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.905441</v>
+      </c>
+      <c r="I17">
+        <v>0.2163625823929989</v>
+      </c>
+      <c r="J17">
+        <v>0.2163625823929988</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.250702333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.752107</v>
+      </c>
+      <c r="O17">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="P17">
+        <v>0.07448862167812857</v>
+      </c>
+      <c r="Q17">
+        <v>8.367423946020777</v>
+      </c>
+      <c r="R17">
+        <v>75.30681551418699</v>
+      </c>
+      <c r="S17">
+        <v>0.01611655054517501</v>
+      </c>
+      <c r="T17">
+        <v>0.01611655054517501</v>
       </c>
     </row>
   </sheetData>
